--- a/Presentation Outline.xlsx
+++ b/Presentation Outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johns\Desktop\Bootcamp_Folder\good-movies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D5B97C-28FC-4B27-BA65-3148067C21FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9980D5FB-A9CA-4F50-BD15-915CC69689AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AAB76F90-CABA-4D8A-AF46-E6834DB93A6C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAB76F90-CABA-4D8A-AF46-E6834DB93A6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>I.</t>
   </si>
@@ -48,9 +48,6 @@
     <t>C.</t>
   </si>
   <si>
-    <t>Data Collection -- Hannah</t>
-  </si>
-  <si>
     <t>III.</t>
   </si>
   <si>
@@ -87,15 +84,9 @@
     <t>V.</t>
   </si>
   <si>
-    <t>Oscar / Non-Oscar Comparison - Geoff</t>
-  </si>
-  <si>
     <t>Movies are separated by year and by if they received Oscar nominations or not</t>
   </si>
   <si>
-    <t>Dataset ranges from 1920s to 2017</t>
-  </si>
-  <si>
     <t>With available data, we chose to compare movies by if they were Oscar Nominated or not</t>
   </si>
   <si>
@@ -112,15 +103,6 @@
   </si>
   <si>
     <t>VI.</t>
-  </si>
-  <si>
-    <t>Conclusion / Award Ceremony -- Timothy</t>
-  </si>
-  <si>
-    <t>Data limitations</t>
-  </si>
-  <si>
-    <t>Faux Awards</t>
   </si>
   <si>
     <r>
@@ -143,6 +125,39 @@
   </si>
   <si>
     <t>Flask App (Python, json)</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Not all years have data available</t>
+  </si>
+  <si>
+    <t>Explored more datapoints like family friendliness and MPAA ratings</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Some data came in as dictionaries or arrays when we were expecting single values</t>
+  </si>
+  <si>
+    <t>Data limitations and challenges</t>
+  </si>
+  <si>
+    <t>Defining what makes a succesful movie can be very subjective</t>
+  </si>
+  <si>
+    <t>Dataset of 2,107 includes movie data from the 1920s to the 2000s</t>
+  </si>
+  <si>
+    <t>Narrowed the date range to only look at more recent data</t>
+  </si>
+  <si>
+    <t>Utilize more datasets like OMDB or IMDB to see what other data is available</t>
   </si>
   <si>
     <r>
@@ -206,44 +221,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> {</t>
+      <t xml:space="preserve"> {u});"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>});"</t>
-    </r>
-  </si>
-  <si>
-    <t>Movie Data Filter with Demonstrations -- Melody</t>
-  </si>
-  <si>
-    <t>Movies by Year with Demonstrations -- Timothy</t>
-  </si>
-  <si>
-    <t>Introduction -- Opening Crawl</t>
+  </si>
+  <si>
+    <t>Faux Awards (If time permits)</t>
+  </si>
+  <si>
+    <t>Introduction -- Melody    (1-2 Minutes)</t>
+  </si>
+  <si>
+    <t>Data Collection -- Hannah  (3-4 minutes)</t>
+  </si>
+  <si>
+    <t>Statistics.html -- Movies by Year with Demonstrations -- Timothy (1-2 minutes)</t>
+  </si>
+  <si>
+    <t>Data.html -- Movie Data Filter with Demonstrations -- Melody (1-2 minutes)</t>
+  </si>
+  <si>
+    <t>Comparison.html -- Oscar / Non-Oscar Comparison -- Geoff (2-3 minutes)</t>
+  </si>
+  <si>
+    <t>Conclusion / Award Ceremony -- Timothy (2-3 minutes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,13 +287,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -308,8 +308,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,30 +626,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFB1195-087B-482D-A53D-551B34FD3269}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.81640625" customWidth="1"/>
     <col min="2" max="2" width="3.6328125" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -671,15 +674,15 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -687,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -695,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -703,15 +706,15 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -719,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -727,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -735,127 +738,181 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+      <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C38" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
